--- a/API_M/Api_Auto/API_UR_A/API_UR_A.xlsx
+++ b/API_M/Api_Auto/API_UR_A/API_UR_A.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379F4E59-02BE-448F-A41E-1FAF3C1E7E5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA29644E-BEC2-419B-AF2F-3E3A1C9862AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="2460" windowWidth="15375" windowHeight="7875" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API_UR_MP_001" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
     <t>API_UR_MN_007</t>
   </si>
   <si>
-    <t>{"name":"Test9 ApellidoTest9","email":"TestAuto9@hexaware.com","username":"Test9","password":"Hex4ware!!!"}</t>
-  </si>
-  <si>
     <t>{"name":"Test9 ApellidoTest9","email":"TestAuto9@hexaware.com","username":"Test9Test9Test9Test9Test9Test9Test9Test90","password":"Hex4ware!!!"}</t>
   </si>
   <si>
@@ -89,19 +86,10 @@
     <t>API_UR_MN_009</t>
   </si>
   <si>
-    <t>{"name":"Test9 ApellidoTest9","email":"TestAuto9@hexaware.com","username":"TestAuto!","password":"Hex4ware!!!"}</t>
-  </si>
-  <si>
-    <t>{"name":"Test10 ApellidoTest10","email":"TestAuto10@hexaware.com","username":"TestAuto10","password":"Hex4war"}</t>
-  </si>
-  <si>
     <t>API_UR_MN_010</t>
   </si>
   <si>
     <t>API_UR_MN_011</t>
-  </si>
-  <si>
-    <t>{"name":"Test11 ApellidoTest11","email":"TestAuto11@hexaware.com","username":"TestAuto11","password":"hexaware"}</t>
   </si>
   <si>
     <t>{"name":"Test2 ApellidoTest2","email":"TestAuto6@hexaware.com","username":"TestAuto6","password":"Hex4ware!!!"}</t>
@@ -123,6 +111,18 @@
 "email":"Test@gamail.com",
 "username":"TestAuto7",
 "password":"Hex4ware!"}</t>
+  </si>
+  <si>
+    <t>{"name":"Test9 ApellidoTest9","email":"TestAuto12@hexaware.com","username":"TestAuto!!","password":"Hex4ware!!!"}</t>
+  </si>
+  <si>
+    <t>{"name":"Test10 ApellidoTest10","email":"TestAuto13@hexaware.com","username":"TestAuto13","password":"Hex4war"}</t>
+  </si>
+  <si>
+    <t>{"name":"Test13 ApellidoTest13","email":"TestAuto14@hexaware.com","username":"TestAuto14","password":"hexaware"}</t>
+  </si>
+  <si>
+    <t>{"name":"AutoTest9 ApellidoTest9","email":"TestAutomation@hexaware.com","username":"AutoTest9","password":"Hex4ware!!!"}</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>201</v>
@@ -565,7 +565,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,13 +593,13 @@
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -618,7 +618,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,13 +647,13 @@
     </row>
     <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2">
         <v>200</v>
@@ -759,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>500</v>
@@ -866,7 +866,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -884,7 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171BAE2C-DAAA-429C-9CBB-F300CF47CC2E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -919,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>500</v>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82696E0D-05B7-46A6-B2DA-A064477F79D6}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -1019,13 +1019,13 @@
     </row>
     <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>500</v>
@@ -1044,7 +1044,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,13 +1072,13 @@
     </row>
     <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>200</v>

--- a/API_M/Api_Auto/API_UR_A/API_UR_A.xlsx
+++ b/API_M/Api_Auto/API_UR_A/API_UR_A.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA29644E-BEC2-419B-AF2F-3E3A1C9862AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21FAD5B-BC5D-4CE6-8868-DDC48F2EA82A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2460" windowWidth="15375" windowHeight="7875" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="API_UR_MP_001" sheetId="1" r:id="rId1"/>
@@ -107,22 +107,22 @@
     <t>{"name":"Test3 ApellidoTest3","email":"Tess666","username":"TestAuto777","password":"Hex4ware!"}</t>
   </si>
   <si>
-    <t>{"name":"llllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllllll",
+    <t>{"name":"Test9 ApellidoTest9","email":"TestAuto12@hexaware.com","username":"TestAuto!!","password":"Hex4ware!!!"}</t>
+  </si>
+  <si>
+    <t>{"name":"Test10 ApellidoTest10","email":"TestAuto13@hexaware.com","username":"TestAuto13","password":"Hex4war"}</t>
+  </si>
+  <si>
+    <t>{"name":"Test13 ApellidoTest13","email":"TestAuto14@hexaware.com","username":"TestAuto14","password":"hexaware"}</t>
+  </si>
+  <si>
+    <t>{"name":"AutoTest9 ApellidoTest9","email":"TestAutomation@hexaware.com","username":"AutoTest9","password":"Hex4ware!!!"}</t>
+  </si>
+  <si>
+    <t>{"name":"012345679012345679012345679012345679012345679012345679012345679012345679012345679012345679012345679012345679012345679012345679012345679012345679012345679012345679012345679012345679012345679012345679012345679012345679012345679012345679012345679012345679012345679012345679",
 "email":"Test@gamail.com",
 "username":"TestAuto7",
 "password":"Hex4ware!"}</t>
-  </si>
-  <si>
-    <t>{"name":"Test9 ApellidoTest9","email":"TestAuto12@hexaware.com","username":"TestAuto!!","password":"Hex4ware!!!"}</t>
-  </si>
-  <si>
-    <t>{"name":"Test10 ApellidoTest10","email":"TestAuto13@hexaware.com","username":"TestAuto13","password":"Hex4war"}</t>
-  </si>
-  <si>
-    <t>{"name":"Test13 ApellidoTest13","email":"TestAuto14@hexaware.com","username":"TestAuto14","password":"hexaware"}</t>
-  </si>
-  <si>
-    <t>{"name":"AutoTest9 ApellidoTest9","email":"TestAutomation@hexaware.com","username":"AutoTest9","password":"Hex4ware!!!"}</t>
   </si>
 </sst>
 </file>
@@ -599,7 +599,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -653,7 +653,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -884,7 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171BAE2C-DAAA-429C-9CBB-F300CF47CC2E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -911,7 +911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -919,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D2">
         <v>500</v>
@@ -937,7 +937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82696E0D-05B7-46A6-B2DA-A064477F79D6}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -972,7 +972,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -1078,7 +1078,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2">
         <v>200</v>
